--- a/Experiment_results/RQ1/Metric_combination/metric_combinations.xlsx
+++ b/Experiment_results/RQ1/Metric_combination/metric_combinations.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15CD50B-62D4-BC45-AB58-5E7AD879CF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29100" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="29100" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +44,7 @@
     <t>FDR(%)</t>
   </si>
   <si>
-    <t>Average Faults</t>
+    <t>Faults</t>
   </si>
   <si>
     <t>size=100</t>
@@ -111,8 +110,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,27 +130,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -153,13 +480,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -172,162 +741,90 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -338,7 +835,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -366,40 +863,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -649,28 +1260,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.16346153846154" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.8365384615385" customWidth="1"/>
+    <col min="3" max="3" width="11.3365384615385" customWidth="1"/>
+    <col min="4" max="4" width="11.6634615384615" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.8365384615385" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -693,15 +1304,15 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1"/>
@@ -732,7 +1343,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -762,7 +1373,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="3:11">
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
@@ -786,7 +1397,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="3:11">
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -810,7 +1421,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="3:11">
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -834,7 +1445,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -864,7 +1475,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="3:11">
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
@@ -888,7 +1499,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="3:11">
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -912,7 +1523,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="3:11">
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -936,7 +1547,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -966,7 +1577,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="3:11">
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
@@ -990,7 +1601,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="3:11">
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1014,7 +1625,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="3:11">
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1068,7 +1679,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="3:11">
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1092,7 +1703,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="3:11">
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
@@ -1116,7 +1727,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="3:11">
       <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1170,7 +1781,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="3:11">
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
@@ -1194,7 +1805,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="3:11">
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -1218,7 +1829,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="3:11">
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1272,7 +1883,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="3:11">
       <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
@@ -1296,7 +1907,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="3:11">
       <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
@@ -1320,7 +1931,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="3:11">
       <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1374,7 +1985,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="3:11">
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
@@ -1398,7 +2009,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="3:11">
       <c r="C35" s="2" t="s">
         <v>13</v>
       </c>
@@ -1422,7 +2033,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="3:11">
       <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
@@ -1476,7 +2087,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="3:11">
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
@@ -1500,7 +2111,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="3:11">
       <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
@@ -1524,7 +2135,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="3:11">
       <c r="C41" s="2" t="s">
         <v>14</v>
       </c>
@@ -1586,7 +2197,7 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>